--- a/Database/Book.xlsx
+++ b/Database/Book.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528df9f969b82c32/Project/!GP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tai\Documents\My Code\!GP\Chatbot-Assisted-PC-Webstore\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1076" documentId="13_ncr:1_{65CAFD0E-AC47-4D26-885F-636BCBA2EA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29092852-F4C9-4437-925D-787721CBF02D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0730ED69-7603-4E86-A4B2-F45FFCF68975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{84622BAB-F641-4EC9-B0E9-7434EF23E893}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="5" xr2:uid="{84622BAB-F641-4EC9-B0E9-7434EF23E893}"/>
   </bookViews>
   <sheets>
     <sheet name="GPU" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="607">
   <si>
     <t>Code</t>
   </si>
@@ -1476,12 +1476,6 @@
   </si>
   <si>
     <t>CM Hyper 212 ARGB</t>
-  </si>
-  <si>
-    <t>Socket supported)</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
   <si>
     <t>L001</t>
@@ -1930,10 +1924,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3282,7 +3272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750308AC-C90E-44F9-A2FE-A3560EBD1AF5}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -3652,7 +3642,7 @@
         <v>269</v>
       </c>
       <c r="B13" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
@@ -3681,7 +3671,7 @@
         <v>270</v>
       </c>
       <c r="B14" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C14" t="s">
         <v>95</v>
@@ -7124,8 +7114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71872B42-64AE-4CB9-943D-39E033067EB3}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7154,13 +7144,13 @@
         <v>393</v>
       </c>
       <c r="E1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F1" t="s">
         <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -7174,16 +7164,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" t="s">
         <v>543</v>
       </c>
-      <c r="C2" t="s">
-        <v>545</v>
-      </c>
       <c r="D2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E2">
         <v>1600</v>
@@ -7200,16 +7190,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E3">
         <v>1600</v>
@@ -7217,22 +7207,25 @@
       <c r="F3" t="s">
         <v>165</v>
       </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
       <c r="H3">
         <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" t="s">
         <v>543</v>
       </c>
-      <c r="C4" t="s">
-        <v>545</v>
-      </c>
       <c r="D4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E4">
         <v>1000</v>
@@ -7240,22 +7233,25 @@
       <c r="F4" t="s">
         <v>165</v>
       </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
       <c r="H4">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C5" t="s">
         <v>543</v>
       </c>
-      <c r="C5" t="s">
-        <v>545</v>
-      </c>
       <c r="D5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E5">
         <v>1200</v>
@@ -7263,22 +7259,25 @@
       <c r="F5" t="s">
         <v>165</v>
       </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
       <c r="H5">
         <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E6">
         <v>1200</v>
@@ -7286,22 +7285,25 @@
       <c r="F6" t="s">
         <v>165</v>
       </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
       <c r="H6">
         <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E7">
         <v>1200</v>
@@ -7309,22 +7311,25 @@
       <c r="F7" t="s">
         <v>165</v>
       </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
       <c r="H7">
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -7332,22 +7337,25 @@
       <c r="F8" t="s">
         <v>165</v>
       </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
       <c r="H8">
         <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E9">
         <v>850</v>
@@ -7355,22 +7363,25 @@
       <c r="F9" t="s">
         <v>165</v>
       </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
       <c r="H9">
         <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E10">
         <v>1000</v>
@@ -7378,22 +7389,25 @@
       <c r="F10" t="s">
         <v>165</v>
       </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
       <c r="H10">
         <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -7401,22 +7415,25 @@
       <c r="F11" t="s">
         <v>165</v>
       </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
       <c r="H11">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E12">
         <v>1000</v>
@@ -7424,22 +7441,25 @@
       <c r="F12" t="s">
         <v>166</v>
       </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
       <c r="H12">
         <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E13">
         <v>850</v>
@@ -7447,22 +7467,25 @@
       <c r="F13" t="s">
         <v>165</v>
       </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
       <c r="H13">
         <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C14" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E14">
         <v>850</v>
@@ -7470,22 +7493,25 @@
       <c r="F14" t="s">
         <v>165</v>
       </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
       <c r="H14">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E15">
         <v>1050</v>
@@ -7493,22 +7519,25 @@
       <c r="F15" t="s">
         <v>165</v>
       </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
       <c r="H15">
         <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D16" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E16">
         <v>850</v>
@@ -7516,22 +7545,25 @@
       <c r="F16" t="s">
         <v>165</v>
       </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
       <c r="H16">
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E17">
         <v>750</v>
@@ -7539,22 +7571,25 @@
       <c r="F17" t="s">
         <v>165</v>
       </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
       <c r="H17">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E18">
         <v>650</v>
@@ -7562,22 +7597,25 @@
       <c r="F18" t="s">
         <v>165</v>
       </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
       <c r="H18">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E19">
         <v>750</v>
@@ -7585,22 +7623,25 @@
       <c r="F19" t="s">
         <v>165</v>
       </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
       <c r="H19">
         <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E20">
         <v>850</v>
@@ -7608,22 +7649,25 @@
       <c r="F20" t="s">
         <v>166</v>
       </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
       <c r="H20">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B21" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C21" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D21" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E21">
         <v>850</v>
@@ -7631,22 +7675,25 @@
       <c r="F21" t="s">
         <v>166</v>
       </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
       <c r="H21">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C22" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D22" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E22">
         <v>850</v>
@@ -7654,22 +7701,25 @@
       <c r="F22" t="s">
         <v>165</v>
       </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
       <c r="H22">
         <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C23" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D23" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E23">
         <v>750</v>
@@ -7677,22 +7727,25 @@
       <c r="F23" t="s">
         <v>166</v>
       </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
       <c r="H23">
         <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B24" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C24" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E24">
         <v>750</v>
@@ -7700,22 +7753,25 @@
       <c r="F24" t="s">
         <v>166</v>
       </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
       <c r="H24">
         <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D25" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E25">
         <v>650</v>
@@ -7723,22 +7779,25 @@
       <c r="F25" t="s">
         <v>165</v>
       </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
       <c r="H25">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D26" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E26">
         <v>750</v>
@@ -7746,22 +7805,25 @@
       <c r="F26" t="s">
         <v>165</v>
       </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
       <c r="H26">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B27" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C27" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D27" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E27">
         <v>750</v>
@@ -7769,22 +7831,25 @@
       <c r="F27" t="s">
         <v>165</v>
       </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
       <c r="H27">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B28" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D28" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E28">
         <v>750</v>
@@ -7792,22 +7857,25 @@
       <c r="F28" t="s">
         <v>165</v>
       </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
       <c r="H28">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C29" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D29" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E29">
         <v>650</v>
@@ -7815,22 +7883,25 @@
       <c r="F29" t="s">
         <v>165</v>
       </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
       <c r="H29">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B30" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C30" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E30">
         <v>650</v>
@@ -7838,22 +7909,25 @@
       <c r="F30" t="s">
         <v>165</v>
       </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
       <c r="H30">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B31" t="s">
         <v>442</v>
       </c>
       <c r="C31" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D31" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E31">
         <v>650</v>
@@ -7861,28 +7935,34 @@
       <c r="F31" t="s">
         <v>165</v>
       </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
       <c r="H31">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C32" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D32" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E32">
         <v>650</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
       </c>
       <c r="H32">
         <v>55</v>
@@ -7897,21 +7977,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41008D73-CACD-4B15-A955-B80F37B52CE2}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="27.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.15234375" customWidth="1"/>
-    <col min="9" max="9" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.15234375" customWidth="1"/>
+    <col min="8" max="8" width="11.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7925,24 +8004,21 @@
         <v>405</v>
       </c>
       <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>478</v>
-      </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>480</v>
       </c>
       <c r="B2" t="s">
         <v>461</v>
@@ -7954,21 +8030,18 @@
         <v>407</v>
       </c>
       <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2">
+        <v>150</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>479</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2">
-        <v>150</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>481</v>
       </c>
       <c r="B3" t="s">
         <v>463</v>
@@ -7980,21 +8053,18 @@
         <v>407</v>
       </c>
       <c r="E3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" t="s">
         <v>167</v>
       </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
       <c r="G3">
-        <v>150</v>
-      </c>
-      <c r="H3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
         <v>464</v>
@@ -8006,21 +8076,18 @@
         <v>407</v>
       </c>
       <c r="E4" t="s">
-        <v>479</v>
-      </c>
-      <c r="F4" t="s">
         <v>167</v>
       </c>
+      <c r="F4">
+        <v>130</v>
+      </c>
       <c r="G4">
-        <v>130</v>
-      </c>
-      <c r="H4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s">
         <v>465</v>
@@ -8032,21 +8099,18 @@
         <v>407</v>
       </c>
       <c r="E5" t="s">
-        <v>479</v>
-      </c>
-      <c r="F5" t="s">
         <v>167</v>
       </c>
+      <c r="F5">
+        <v>130</v>
+      </c>
       <c r="G5">
-        <v>130</v>
-      </c>
-      <c r="H5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
         <v>466</v>
@@ -8058,21 +8122,18 @@
         <v>407</v>
       </c>
       <c r="E6" t="s">
-        <v>479</v>
-      </c>
-      <c r="F6" t="s">
         <v>167</v>
       </c>
+      <c r="F6">
+        <v>105</v>
+      </c>
       <c r="G6">
-        <v>105</v>
-      </c>
-      <c r="H6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
         <v>467</v>
@@ -8084,21 +8145,18 @@
         <v>407</v>
       </c>
       <c r="E7" t="s">
-        <v>479</v>
-      </c>
-      <c r="F7" t="s">
         <v>167</v>
       </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
       <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s">
         <v>468</v>
@@ -8110,21 +8168,18 @@
         <v>406</v>
       </c>
       <c r="E8" t="s">
-        <v>479</v>
-      </c>
-      <c r="F8" t="s">
         <v>167</v>
       </c>
+      <c r="F8">
+        <v>80</v>
+      </c>
       <c r="G8">
-        <v>80</v>
-      </c>
-      <c r="H8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B9" t="s">
         <v>469</v>
@@ -8136,21 +8191,18 @@
         <v>407</v>
       </c>
       <c r="E9" t="s">
-        <v>479</v>
-      </c>
-      <c r="F9" t="s">
         <v>167</v>
       </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
       <c r="G9">
-        <v>75</v>
-      </c>
-      <c r="H9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
         <v>470</v>
@@ -8162,21 +8214,18 @@
         <v>407</v>
       </c>
       <c r="E10" t="s">
-        <v>479</v>
-      </c>
-      <c r="F10" t="s">
         <v>167</v>
       </c>
+      <c r="F10">
+        <v>75</v>
+      </c>
       <c r="G10">
-        <v>75</v>
-      </c>
-      <c r="H10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B11" t="s">
         <v>471</v>
@@ -8188,21 +8237,18 @@
         <v>407</v>
       </c>
       <c r="E11" t="s">
-        <v>479</v>
-      </c>
-      <c r="F11" t="s">
         <v>166</v>
       </c>
+      <c r="F11">
+        <v>65</v>
+      </c>
       <c r="G11">
-        <v>65</v>
-      </c>
-      <c r="H11">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B12" t="s">
         <v>472</v>
@@ -8214,21 +8260,18 @@
         <v>407</v>
       </c>
       <c r="E12" t="s">
-        <v>479</v>
-      </c>
-      <c r="F12" t="s">
         <v>167</v>
       </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
       <c r="G12">
-        <v>80</v>
-      </c>
-      <c r="H12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B13" t="s">
         <v>473</v>
@@ -8240,21 +8283,18 @@
         <v>406</v>
       </c>
       <c r="E13" t="s">
-        <v>479</v>
-      </c>
-      <c r="F13" t="s">
         <v>167</v>
       </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
       <c r="G13">
-        <v>60</v>
-      </c>
-      <c r="H13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B14" t="s">
         <v>474</v>
@@ -8266,21 +8306,18 @@
         <v>406</v>
       </c>
       <c r="E14" t="s">
-        <v>479</v>
-      </c>
-      <c r="F14" t="s">
         <v>167</v>
       </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
       <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="H14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B15" t="s">
         <v>475</v>
@@ -8292,21 +8329,18 @@
         <v>407</v>
       </c>
       <c r="E15" t="s">
-        <v>479</v>
-      </c>
-      <c r="F15" t="s">
         <v>167</v>
       </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
       <c r="G15">
-        <v>70</v>
-      </c>
-      <c r="H15">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B16" t="s">
         <v>476</v>
@@ -8318,21 +8352,18 @@
         <v>407</v>
       </c>
       <c r="E16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F16" t="s">
         <v>166</v>
       </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
       <c r="G16">
-        <v>40</v>
-      </c>
-      <c r="H16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B17" t="s">
         <v>477</v>
@@ -8344,613 +8375,541 @@
         <v>406</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" t="s">
         <v>167</v>
       </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
       <c r="G17">
-        <v>30</v>
-      </c>
-      <c r="H17">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D18" t="s">
         <v>407</v>
       </c>
-      <c r="E18" t="s">
-        <v>479</v>
+      <c r="E18">
+        <v>360</v>
       </c>
       <c r="F18">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="G18">
-        <v>500</v>
-      </c>
-      <c r="H18">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D19" t="s">
         <v>406</v>
       </c>
-      <c r="E19" t="s">
-        <v>479</v>
+      <c r="E19">
+        <v>360</v>
       </c>
       <c r="F19">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G19">
-        <v>350</v>
-      </c>
-      <c r="H19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D20" t="s">
         <v>406</v>
       </c>
-      <c r="E20" t="s">
-        <v>479</v>
+      <c r="E20">
+        <v>360</v>
       </c>
       <c r="F20">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G20">
-        <v>350</v>
-      </c>
-      <c r="H20">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D21" t="s">
         <v>406</v>
       </c>
-      <c r="E21" t="s">
-        <v>479</v>
+      <c r="E21">
+        <v>360</v>
       </c>
       <c r="F21">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="G21">
-        <v>330</v>
-      </c>
-      <c r="H21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D22" t="s">
         <v>406</v>
       </c>
-      <c r="E22" t="s">
-        <v>479</v>
+      <c r="E22">
+        <v>360</v>
       </c>
       <c r="F22">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="G22">
-        <v>320</v>
-      </c>
-      <c r="H22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B23" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C23" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D23" t="s">
         <v>406</v>
       </c>
-      <c r="E23" t="s">
-        <v>479</v>
+      <c r="E23">
+        <v>360</v>
       </c>
       <c r="F23">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="G23">
-        <v>300</v>
-      </c>
-      <c r="H23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D24" t="s">
         <v>406</v>
       </c>
-      <c r="E24" t="s">
-        <v>479</v>
+      <c r="E24">
+        <v>240</v>
       </c>
       <c r="F24">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="G24">
-        <v>280</v>
-      </c>
-      <c r="H24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D25" t="s">
         <v>406</v>
       </c>
-      <c r="E25" t="s">
-        <v>479</v>
+      <c r="E25">
+        <v>360</v>
       </c>
       <c r="F25">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="G25">
-        <v>280</v>
-      </c>
-      <c r="H25">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B26" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C26" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D26" t="s">
         <v>406</v>
       </c>
-      <c r="E26" t="s">
-        <v>479</v>
+      <c r="E26">
+        <v>240</v>
       </c>
       <c r="F26">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G26">
-        <v>270</v>
-      </c>
-      <c r="H26">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D27" t="s">
         <v>406</v>
       </c>
-      <c r="E27" t="s">
-        <v>479</v>
+      <c r="E27">
+        <v>240</v>
       </c>
       <c r="F27">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G27">
-        <v>270</v>
-      </c>
-      <c r="H27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D28" t="s">
         <v>406</v>
       </c>
-      <c r="E28" t="s">
-        <v>479</v>
+      <c r="E28">
+        <v>240</v>
       </c>
       <c r="F28">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G28">
-        <v>270</v>
-      </c>
-      <c r="H28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B29" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D29" t="s">
         <v>406</v>
       </c>
-      <c r="E29" t="s">
-        <v>479</v>
+      <c r="E29">
+        <v>360</v>
       </c>
       <c r="F29">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G29">
-        <v>270</v>
-      </c>
-      <c r="H29">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C30" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D30" t="s">
         <v>406</v>
       </c>
-      <c r="E30" t="s">
-        <v>479</v>
+      <c r="E30">
+        <v>360</v>
       </c>
       <c r="F30">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="G30">
-        <v>210</v>
-      </c>
-      <c r="H30">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B31" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C31" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D31" t="s">
         <v>406</v>
       </c>
-      <c r="E31" t="s">
-        <v>479</v>
+      <c r="E31">
+        <v>240</v>
       </c>
       <c r="F31">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="G31">
-        <v>190</v>
-      </c>
-      <c r="H31">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B32" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C32" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D32" t="s">
         <v>407</v>
       </c>
-      <c r="E32" t="s">
-        <v>479</v>
+      <c r="E32">
+        <v>360</v>
       </c>
       <c r="F32">
-        <v>360</v>
+        <v>170</v>
       </c>
       <c r="G32">
-        <v>170</v>
-      </c>
-      <c r="H32">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B33" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C33" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D33" t="s">
         <v>406</v>
       </c>
-      <c r="E33" t="s">
-        <v>479</v>
+      <c r="E33">
+        <v>240</v>
       </c>
       <c r="F33">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="G33">
-        <v>160</v>
-      </c>
-      <c r="H33">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B34" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C34" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D34" t="s">
         <v>406</v>
       </c>
-      <c r="E34" t="s">
-        <v>479</v>
+      <c r="E34">
+        <v>240</v>
       </c>
       <c r="F34">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="G34">
-        <v>150</v>
-      </c>
-      <c r="H34">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B35" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C35" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D35" t="s">
         <v>406</v>
       </c>
-      <c r="E35" t="s">
-        <v>479</v>
+      <c r="E35">
+        <v>360</v>
       </c>
       <c r="F35">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="G35">
-        <v>150</v>
-      </c>
-      <c r="H35">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B36" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C36" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D36" t="s">
         <v>406</v>
       </c>
-      <c r="E36" t="s">
-        <v>479</v>
+      <c r="E36">
+        <v>360</v>
       </c>
       <c r="F36">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="G36">
-        <v>120</v>
-      </c>
-      <c r="H36">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B37" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C37" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D37" t="s">
         <v>406</v>
       </c>
-      <c r="E37" t="s">
-        <v>479</v>
+      <c r="E37">
+        <v>360</v>
       </c>
       <c r="F37">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="G37">
-        <v>120</v>
-      </c>
-      <c r="H37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B38" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D38" t="s">
         <v>406</v>
       </c>
-      <c r="E38" t="s">
-        <v>479</v>
+      <c r="E38">
+        <v>240</v>
       </c>
       <c r="F38">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="G38">
-        <v>120</v>
-      </c>
-      <c r="H38">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D39" t="s">
         <v>406</v>
       </c>
-      <c r="E39" t="s">
-        <v>479</v>
+      <c r="E39">
+        <v>240</v>
       </c>
       <c r="F39">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="G39">
-        <v>90</v>
-      </c>
-      <c r="H39">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B40" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C40" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D40" t="s">
         <v>406</v>
       </c>
-      <c r="E40" t="s">
-        <v>479</v>
+      <c r="E40">
+        <v>240</v>
       </c>
       <c r="F40">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="G40">
-        <v>70</v>
-      </c>
-      <c r="H40">
         <v>20</v>
       </c>
     </row>
